--- a/data/trans_dic/P44A$analisis-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 47,42</t>
+          <t>5,38; 45,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 47,62</t>
+          <t>13,5; 47,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 17,83</t>
+          <t>6,78; 17,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 64,09</t>
+          <t>8,79; 67,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,44</t>
+          <t>0,0; 63,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,24</t>
+          <t>3,34; 13,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 47,07</t>
+          <t>13,46; 45,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,5; 43,56</t>
+          <t>13,76; 43,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 13,94</t>
+          <t>6,94; 14,35</t>
         </is>
       </c>
     </row>
@@ -795,22 +796,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,76</t>
+          <t>0,0; 40,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,57; 75,58</t>
+          <t>35,19; 76,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 23,77</t>
+          <t>8,85; 24,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,76; 100,0</t>
+          <t>27,93; 89,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,22 +821,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 16,13</t>
+          <t>3,88; 15,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 52,19</t>
+          <t>12,93; 52,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,92; 64,29</t>
+          <t>29,27; 65,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 19,33</t>
+          <t>8,04; 19,01</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 58,51</t>
+          <t>17,49; 58,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 53,12</t>
+          <t>17,52; 55,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 94,73</t>
+          <t>14,33; 95,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,6</t>
+          <t>0,0; 46,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,88</t>
+          <t>0,0; 55,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 14,46</t>
+          <t>1,63; 13,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 49,32</t>
+          <t>13,94; 46,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 47,42</t>
+          <t>16,27; 48,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 93,63</t>
+          <t>11,46; 92,28</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,89; 79,29</t>
+          <t>43,77; 77,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 43,2</t>
+          <t>18,19; 44,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 20,06</t>
+          <t>10,05; 19,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,25; 73,37</t>
+          <t>22,54; 75,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 54,37</t>
+          <t>13,3; 55,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,03</t>
+          <t>4,48; 13,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,24; 70,99</t>
+          <t>44,02; 72,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,28; 42,82</t>
+          <t>19,13; 40,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,07</t>
+          <t>9,03; 16,06</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,05</t>
+          <t>0,0; 61,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,39; 59,97</t>
+          <t>22,88; 61,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 20,38</t>
+          <t>5,76; 20,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 40,73</t>
+          <t>7,58; 40,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,03; 68,25</t>
+          <t>30,06; 68,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,58; 20,57</t>
+          <t>10,49; 20,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,29; 37,81</t>
+          <t>9,02; 39,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,23; 60,01</t>
+          <t>32,03; 60,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 17,94</t>
+          <t>10,1; 18,38</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 52,36</t>
+          <t>16,12; 50,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,06; 53,06</t>
+          <t>20,64; 53,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 20,24</t>
+          <t>10,91; 20,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 52,36</t>
+          <t>16,12; 50,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>21,06; 53,06</t>
+          <t>20,64; 53,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,29; 19,58</t>
+          <t>10,34; 19,64</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,55; 47,92</t>
+          <t>27,99; 47,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,02; 44,46</t>
+          <t>29,1; 44,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,89; 73,82</t>
+          <t>12,85; 77,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,49; 41,74</t>
+          <t>23,07; 42,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,38; 43,33</t>
+          <t>23,77; 43,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,45</t>
+          <t>9,33; 13,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,93; 41,35</t>
+          <t>28,26; 42,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,46; 41,56</t>
+          <t>29,69; 41,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,88; 61,25</t>
+          <t>12,06; 60,74</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8655</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14541</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4534</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2854</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5505</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8679</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11509</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20046</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1031; 8773</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4177; 14697</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8705; 22116</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1175; 9050</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7090</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2459; 9641</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4379; 14672</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5782; 18182</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14020; 28985</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>14977</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12445</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5065</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7143</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16695</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6575</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9483; 20698</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7328; 20186</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2321; 7463</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1625</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1899; 7651</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3173; 12860</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9442; 21252</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10599; 25049</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10310</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10150</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>258477</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1804</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11386</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11141</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>260281</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5123; 17033</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5117; 16273</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47288; 315478</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5104</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4103</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>533; 4436</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5604; 18715</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5949; 17601</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41563; 334660</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>22498</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14760</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22952</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7345</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7111</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29843</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21852</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30063</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>15857; 28022</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8979; 21781</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15995; 31673</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3266; 10866</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3232; 13487</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3832; 11812</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>22321; 36946</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14093; 29705</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22094; 39298</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2039</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9697</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7553</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5431</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13257</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16454</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7470</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22954</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24007</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5234</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5317; 14251</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3829; 13648</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2042; 11018</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8240; 18907</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11621; 22492</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3192; 13879</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16225; 30793</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17913; 32594</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10321</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18069</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>10321</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14085</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18069</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1027</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5153; 15984</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>8142; 20983</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13066; 24564</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5153; 15984</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8142; 20983</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12785; 24291</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>41070</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>315969</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>33772</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>38278</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>53192</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>96518</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>369161</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>30607; 52072</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>46469; 70793</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>99008; 596502</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>24440; 45135</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>27314; 49495</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43972; 64559</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>60844; 90540</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>81520; 113707</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>149792; 754429</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$analisis-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
